--- a/Final_Design/WingBoxAnalysis_v2/testdata.xlsx
+++ b/Final_Design/WingBoxAnalysis_v2/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273b60a69ebe275f/Desktop/SMM/Final_Design/WingBox_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273b60a69ebe275f/Desktop/SMM/Final_Design/WingBoxAnalysis_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D101E9AD-D05C-4309-AEE2-42DA54050863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBFD2CF4-30F9-4B8F-ABC6-1E523E9605C2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{D101E9AD-D05C-4309-AEE2-42DA54050863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7947A2D7-A4A2-49D7-872A-5DA1E3F532FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesdata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -501,10 +501,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -862,18 +861,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -884,7 +884,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -895,7 +895,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -917,7 +917,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1005,7 +1005,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1049,7 +1049,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1093,7 +1093,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1115,7 +1115,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -1258,7 +1258,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -1280,7 +1280,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -1357,7 +1357,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -1368,7 +1368,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1">
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1">
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1">
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1">
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -1522,7 +1522,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1">
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1">
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1">
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1">
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1">
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1">
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -1709,7 +1709,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -1720,7 +1720,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1">
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -1742,7 +1742,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1">
@@ -1753,10 +1753,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>1.996</v>
       </c>
       <c r="C81" s="1">
@@ -1764,10 +1764,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>1.9970000000000001</v>
       </c>
       <c r="C82" s="1">
@@ -1775,10 +1775,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>1.9970000000000001</v>
       </c>
       <c r="C83" s="1">
